--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,40 +546,40 @@
         <v>0.714788</v>
       </c>
       <c r="I2">
-        <v>0.4756377932112013</v>
+        <v>0.1443700297490468</v>
       </c>
       <c r="J2">
-        <v>0.4756377932112012</v>
+        <v>0.1443700297490468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6374639999999999</v>
+        <v>1.133096</v>
       </c>
       <c r="N2">
-        <v>1.912392</v>
+        <v>3.399288</v>
       </c>
       <c r="O2">
-        <v>0.2392753544853431</v>
+        <v>0.2917878340533132</v>
       </c>
       <c r="P2">
-        <v>0.2392753544853431</v>
+        <v>0.2917878340533132</v>
       </c>
       <c r="Q2">
-        <v>0.151883872544</v>
+        <v>0.2699744745493333</v>
       </c>
       <c r="R2">
-        <v>1.366954852896</v>
+        <v>2.429770270944</v>
       </c>
       <c r="S2">
-        <v>0.1138084015772365</v>
+        <v>0.04212541828268677</v>
       </c>
       <c r="T2">
-        <v>0.1138084015772365</v>
+        <v>0.04212541828268677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.714788</v>
       </c>
       <c r="I3">
-        <v>0.4756377932112013</v>
+        <v>0.1443700297490468</v>
       </c>
       <c r="J3">
-        <v>0.4756377932112012</v>
+        <v>0.1443700297490468</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>4.02915</v>
       </c>
       <c r="O3">
-        <v>0.504120648133134</v>
+        <v>0.3458538822176606</v>
       </c>
       <c r="P3">
-        <v>0.504120648133134</v>
+        <v>0.3458538822176606</v>
       </c>
       <c r="Q3">
         <v>0.3199986744666667</v>
@@ -638,10 +638,10 @@
         <v>2.8799880702</v>
       </c>
       <c r="S3">
-        <v>0.2397788325902443</v>
+        <v>0.049930935264587</v>
       </c>
       <c r="T3">
-        <v>0.2397788325902443</v>
+        <v>0.049930935264587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +670,40 @@
         <v>0.714788</v>
       </c>
       <c r="I4">
-        <v>0.4756377932112013</v>
+        <v>0.1443700297490468</v>
       </c>
       <c r="J4">
-        <v>0.4756377932112012</v>
+        <v>0.1443700297490468</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1664746666666667</v>
+        <v>1.000821</v>
       </c>
       <c r="N4">
-        <v>0.499424</v>
+        <v>3.002463</v>
       </c>
       <c r="O4">
-        <v>0.06248711280871705</v>
+        <v>0.25772519880493</v>
       </c>
       <c r="P4">
-        <v>0.06248711280871704</v>
+        <v>0.2577251988049301</v>
       </c>
       <c r="Q4">
-        <v>0.03966469801244444</v>
+        <v>0.238458280316</v>
       </c>
       <c r="R4">
-        <v>0.3569822821119999</v>
+        <v>2.146124522844</v>
       </c>
       <c r="S4">
-        <v>0.02972123244047756</v>
+        <v>0.03720779461854675</v>
       </c>
       <c r="T4">
-        <v>0.02972123244047756</v>
+        <v>0.03720779461854676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,40 +732,40 @@
         <v>0.714788</v>
       </c>
       <c r="I5">
-        <v>0.4756377932112013</v>
+        <v>0.1443700297490468</v>
       </c>
       <c r="J5">
-        <v>0.4756377932112012</v>
+        <v>0.1443700297490468</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2067233333333333</v>
+        <v>0.2348406666666667</v>
       </c>
       <c r="N5">
-        <v>0.62017</v>
+        <v>0.7045220000000001</v>
       </c>
       <c r="O5">
-        <v>0.07759465454319787</v>
+        <v>0.06047470776907057</v>
       </c>
       <c r="P5">
-        <v>0.07759465454319786</v>
+        <v>0.06047470776907057</v>
       </c>
       <c r="Q5">
-        <v>0.04925445266222222</v>
+        <v>0.05595376348177778</v>
       </c>
       <c r="R5">
-        <v>0.44329007396</v>
+        <v>0.503583871336</v>
       </c>
       <c r="S5">
-        <v>0.03690695025191215</v>
+        <v>0.008730735359685632</v>
       </c>
       <c r="T5">
-        <v>0.03690695025191214</v>
+        <v>0.008730735359685632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,40 +794,40 @@
         <v>0.714788</v>
       </c>
       <c r="I6">
-        <v>0.4756377932112013</v>
+        <v>0.1443700297490468</v>
       </c>
       <c r="J6">
-        <v>0.4756377932112012</v>
+        <v>0.1443700297490468</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.310432</v>
+        <v>0.1714796666666667</v>
       </c>
       <c r="N6">
-        <v>0.931296</v>
+        <v>0.514439</v>
       </c>
       <c r="O6">
-        <v>0.116522230029608</v>
+        <v>0.04415837715502553</v>
       </c>
       <c r="P6">
-        <v>0.116522230029608</v>
+        <v>0.04415837715502553</v>
       </c>
       <c r="Q6">
-        <v>0.07396435613866666</v>
+        <v>0.04085720265911111</v>
       </c>
       <c r="R6">
-        <v>0.6656792052479999</v>
+        <v>0.367714823932</v>
       </c>
       <c r="S6">
-        <v>0.05542237635133072</v>
+        <v>0.006375146223540665</v>
       </c>
       <c r="T6">
-        <v>0.05542237635133072</v>
+        <v>0.006375146223540665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,46 +850,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.03835133333333333</v>
+        <v>0.7945923333333332</v>
       </c>
       <c r="H7">
-        <v>0.115054</v>
+        <v>2.383777</v>
       </c>
       <c r="I7">
-        <v>0.07655980606854276</v>
+        <v>0.4814657722360946</v>
       </c>
       <c r="J7">
-        <v>0.07655980606854276</v>
+        <v>0.4814657722360946</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6374639999999999</v>
+        <v>1.133096</v>
       </c>
       <c r="N7">
-        <v>1.912392</v>
+        <v>3.399288</v>
       </c>
       <c r="O7">
-        <v>0.2392753544853431</v>
+        <v>0.2917878340533132</v>
       </c>
       <c r="P7">
-        <v>0.2392753544853431</v>
+        <v>0.2917878340533132</v>
       </c>
       <c r="Q7">
-        <v>0.02444759435199999</v>
+        <v>0.9003493945306664</v>
       </c>
       <c r="R7">
-        <v>0.220028349168</v>
+        <v>8.103144550775999</v>
       </c>
       <c r="S7">
-        <v>0.01831887473637969</v>
+        <v>0.1404858548515759</v>
       </c>
       <c r="T7">
-        <v>0.01831887473637969</v>
+        <v>0.1404858548515759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.03835133333333333</v>
+        <v>0.7945923333333332</v>
       </c>
       <c r="H8">
-        <v>0.115054</v>
+        <v>2.383777</v>
       </c>
       <c r="I8">
-        <v>0.07655980606854276</v>
+        <v>0.4814657722360946</v>
       </c>
       <c r="J8">
-        <v>0.07655980606854276</v>
+        <v>0.4814657722360946</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>4.02915</v>
       </c>
       <c r="O8">
-        <v>0.504120648133134</v>
+        <v>0.3458538822176606</v>
       </c>
       <c r="P8">
-        <v>0.504120648133134</v>
+        <v>0.3458538822176606</v>
       </c>
       <c r="Q8">
-        <v>0.05150775823333333</v>
+        <v>1.067177233283333</v>
       </c>
       <c r="R8">
-        <v>0.4635698241</v>
+        <v>9.60459509955</v>
       </c>
       <c r="S8">
-        <v>0.03859537905622082</v>
+        <v>0.1665168064827773</v>
       </c>
       <c r="T8">
-        <v>0.03859537905622082</v>
+        <v>0.1665168064827773</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,46 +974,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.03835133333333333</v>
+        <v>0.7945923333333332</v>
       </c>
       <c r="H9">
-        <v>0.115054</v>
+        <v>2.383777</v>
       </c>
       <c r="I9">
-        <v>0.07655980606854276</v>
+        <v>0.4814657722360946</v>
       </c>
       <c r="J9">
-        <v>0.07655980606854276</v>
+        <v>0.4814657722360946</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1664746666666667</v>
+        <v>1.000821</v>
       </c>
       <c r="N9">
-        <v>0.499424</v>
+        <v>3.002463</v>
       </c>
       <c r="O9">
-        <v>0.06248711280871705</v>
+        <v>0.25772519880493</v>
       </c>
       <c r="P9">
-        <v>0.06248711280871704</v>
+        <v>0.2577251988049301</v>
       </c>
       <c r="Q9">
-        <v>0.006384525432888887</v>
+        <v>0.7952446936389999</v>
       </c>
       <c r="R9">
-        <v>0.05746072889599999</v>
+        <v>7.157202242751</v>
       </c>
       <c r="S9">
-        <v>0.004784001238418532</v>
+        <v>0.1240858618673166</v>
       </c>
       <c r="T9">
-        <v>0.004784001238418531</v>
+        <v>0.1240858618673167</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,46 +1036,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.03835133333333333</v>
+        <v>0.7945923333333332</v>
       </c>
       <c r="H10">
-        <v>0.115054</v>
+        <v>2.383777</v>
       </c>
       <c r="I10">
-        <v>0.07655980606854276</v>
+        <v>0.4814657722360946</v>
       </c>
       <c r="J10">
-        <v>0.07655980606854276</v>
+        <v>0.4814657722360946</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2067233333333333</v>
+        <v>0.2348406666666667</v>
       </c>
       <c r="N10">
-        <v>0.62017</v>
+        <v>0.7045220000000001</v>
       </c>
       <c r="O10">
-        <v>0.07759465454319787</v>
+        <v>0.06047470776907057</v>
       </c>
       <c r="P10">
-        <v>0.07759465454319786</v>
+        <v>0.06047470776907057</v>
       </c>
       <c r="Q10">
-        <v>0.007928115464444444</v>
+        <v>0.1866025932882222</v>
       </c>
       <c r="R10">
-        <v>0.07135303917999999</v>
+        <v>1.679423339594</v>
       </c>
       <c r="S10">
-        <v>0.0059406317037828</v>
+        <v>0.02911650187678771</v>
       </c>
       <c r="T10">
-        <v>0.005940631703782799</v>
+        <v>0.02911650187678771</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,46 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.03835133333333333</v>
+        <v>0.7945923333333332</v>
       </c>
       <c r="H11">
-        <v>0.115054</v>
+        <v>2.383777</v>
       </c>
       <c r="I11">
-        <v>0.07655980606854276</v>
+        <v>0.4814657722360946</v>
       </c>
       <c r="J11">
-        <v>0.07655980606854276</v>
+        <v>0.4814657722360946</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.310432</v>
+        <v>0.1714796666666667</v>
       </c>
       <c r="N11">
-        <v>0.931296</v>
+        <v>0.514439</v>
       </c>
       <c r="O11">
-        <v>0.116522230029608</v>
+        <v>0.04415837715502553</v>
       </c>
       <c r="P11">
-        <v>0.116522230029608</v>
+        <v>0.04415837715502553</v>
       </c>
       <c r="Q11">
-        <v>0.01190548110933333</v>
+        <v>0.1362564284558889</v>
       </c>
       <c r="R11">
-        <v>0.107149329984</v>
+        <v>1.226307856103</v>
       </c>
       <c r="S11">
-        <v>0.00892091933374092</v>
+        <v>0.02126074715763708</v>
       </c>
       <c r="T11">
-        <v>0.00892091933374092</v>
+        <v>0.02126074715763708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.224319</v>
+        <v>0.01520133333333333</v>
       </c>
       <c r="H12">
-        <v>0.672957</v>
+        <v>0.045604</v>
       </c>
       <c r="I12">
-        <v>0.4478024007202561</v>
+        <v>0.009210914056581157</v>
       </c>
       <c r="J12">
-        <v>0.447802400720256</v>
+        <v>0.009210914056581157</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6374639999999999</v>
+        <v>1.133096</v>
       </c>
       <c r="N12">
-        <v>1.912392</v>
+        <v>3.399288</v>
       </c>
       <c r="O12">
-        <v>0.2392753544853431</v>
+        <v>0.2917878340533132</v>
       </c>
       <c r="P12">
-        <v>0.2392753544853431</v>
+        <v>0.2917878340533132</v>
       </c>
       <c r="Q12">
-        <v>0.142995287016</v>
+        <v>0.01722456999466666</v>
       </c>
       <c r="R12">
-        <v>1.286957583144</v>
+        <v>0.155021129952</v>
       </c>
       <c r="S12">
-        <v>0.1071480781717269</v>
+        <v>0.002687632662221032</v>
       </c>
       <c r="T12">
-        <v>0.1071480781717269</v>
+        <v>0.002687632662221032</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.224319</v>
+        <v>0.01520133333333333</v>
       </c>
       <c r="H13">
-        <v>0.672957</v>
+        <v>0.045604</v>
       </c>
       <c r="I13">
-        <v>0.4478024007202561</v>
+        <v>0.009210914056581157</v>
       </c>
       <c r="J13">
-        <v>0.447802400720256</v>
+        <v>0.009210914056581157</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.02915</v>
       </c>
       <c r="O13">
-        <v>0.504120648133134</v>
+        <v>0.3458538822176606</v>
       </c>
       <c r="P13">
-        <v>0.504120648133134</v>
+        <v>0.3458538822176606</v>
       </c>
       <c r="Q13">
-        <v>0.30127163295</v>
+        <v>0.02041615073333333</v>
       </c>
       <c r="R13">
-        <v>2.711444696550001</v>
+        <v>0.1837453566</v>
       </c>
       <c r="S13">
-        <v>0.2257464364866689</v>
+        <v>0.003185630385241814</v>
       </c>
       <c r="T13">
-        <v>0.2257464364866688</v>
+        <v>0.003185630385241814</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.224319</v>
+        <v>0.01520133333333333</v>
       </c>
       <c r="H14">
-        <v>0.672957</v>
+        <v>0.045604</v>
       </c>
       <c r="I14">
-        <v>0.4478024007202561</v>
+        <v>0.009210914056581157</v>
       </c>
       <c r="J14">
-        <v>0.447802400720256</v>
+        <v>0.009210914056581157</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1664746666666667</v>
+        <v>1.000821</v>
       </c>
       <c r="N14">
-        <v>0.499424</v>
+        <v>3.002463</v>
       </c>
       <c r="O14">
-        <v>0.06248711280871705</v>
+        <v>0.25772519880493</v>
       </c>
       <c r="P14">
-        <v>0.06248711280871704</v>
+        <v>0.2577251988049301</v>
       </c>
       <c r="Q14">
-        <v>0.037343430752</v>
+        <v>0.015213813628</v>
       </c>
       <c r="R14">
-        <v>0.336090876768</v>
+        <v>0.136924322652</v>
       </c>
       <c r="S14">
-        <v>0.02798187912982096</v>
+        <v>0.002373884656407503</v>
       </c>
       <c r="T14">
-        <v>0.02798187912982095</v>
+        <v>0.002373884656407504</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.224319</v>
+        <v>0.01520133333333333</v>
       </c>
       <c r="H15">
-        <v>0.672957</v>
+        <v>0.045604</v>
       </c>
       <c r="I15">
-        <v>0.4478024007202561</v>
+        <v>0.009210914056581157</v>
       </c>
       <c r="J15">
-        <v>0.447802400720256</v>
+        <v>0.009210914056581157</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2067233333333333</v>
+        <v>0.2348406666666667</v>
       </c>
       <c r="N15">
-        <v>0.62017</v>
+        <v>0.7045220000000001</v>
       </c>
       <c r="O15">
-        <v>0.07759465454319787</v>
+        <v>0.06047470776907057</v>
       </c>
       <c r="P15">
-        <v>0.07759465454319786</v>
+        <v>0.06047470776907057</v>
       </c>
       <c r="Q15">
-        <v>0.04637197141</v>
+        <v>0.003569891254222223</v>
       </c>
       <c r="R15">
-        <v>0.41734774269</v>
+        <v>0.03212902128800001</v>
       </c>
       <c r="S15">
-        <v>0.03474707258750293</v>
+        <v>0.0005570273358577699</v>
       </c>
       <c r="T15">
-        <v>0.03474707258750293</v>
+        <v>0.0005570273358577699</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01520133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.045604</v>
+      </c>
+      <c r="I16">
+        <v>0.009210914056581157</v>
+      </c>
+      <c r="J16">
+        <v>0.009210914056581157</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1714796666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.514439</v>
+      </c>
+      <c r="O16">
+        <v>0.04415837715502553</v>
+      </c>
+      <c r="P16">
+        <v>0.04415837715502553</v>
+      </c>
+      <c r="Q16">
+        <v>0.002606719572888889</v>
+      </c>
+      <c r="R16">
+        <v>0.023460476156</v>
+      </c>
+      <c r="S16">
+        <v>0.0004067390168530369</v>
+      </c>
+      <c r="T16">
+        <v>0.0004067390168530369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6023046666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.806914</v>
+      </c>
+      <c r="I17">
+        <v>0.3649532839582774</v>
+      </c>
+      <c r="J17">
+        <v>0.3649532839582774</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.133096</v>
+      </c>
+      <c r="N17">
+        <v>3.399288</v>
+      </c>
+      <c r="O17">
+        <v>0.2917878340533132</v>
+      </c>
+      <c r="P17">
+        <v>0.2917878340533132</v>
+      </c>
+      <c r="Q17">
+        <v>0.6824690085813332</v>
+      </c>
+      <c r="R17">
+        <v>6.142221077232</v>
+      </c>
+      <c r="S17">
+        <v>0.1064889282568295</v>
+      </c>
+      <c r="T17">
+        <v>0.1064889282568295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6023046666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.806914</v>
+      </c>
+      <c r="I18">
+        <v>0.3649532839582774</v>
+      </c>
+      <c r="J18">
+        <v>0.3649532839582774</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.34305</v>
+      </c>
+      <c r="N18">
+        <v>4.02915</v>
+      </c>
+      <c r="O18">
+        <v>0.3458538822176606</v>
+      </c>
+      <c r="P18">
+        <v>0.3458538822176606</v>
+      </c>
+      <c r="Q18">
+        <v>0.8089252825666666</v>
+      </c>
+      <c r="R18">
+        <v>7.2803275431</v>
+      </c>
+      <c r="S18">
+        <v>0.1262205100850545</v>
+      </c>
+      <c r="T18">
+        <v>0.1262205100850545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6023046666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.806914</v>
+      </c>
+      <c r="I19">
+        <v>0.3649532839582774</v>
+      </c>
+      <c r="J19">
+        <v>0.3649532839582774</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.000821</v>
+      </c>
+      <c r="N19">
+        <v>3.002463</v>
+      </c>
+      <c r="O19">
+        <v>0.25772519880493</v>
+      </c>
+      <c r="P19">
+        <v>0.2577251988049301</v>
+      </c>
+      <c r="Q19">
+        <v>0.6027991587979999</v>
+      </c>
+      <c r="R19">
+        <v>5.425192429182</v>
+      </c>
+      <c r="S19">
+        <v>0.09405765766265912</v>
+      </c>
+      <c r="T19">
+        <v>0.09405765766265914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.224319</v>
-      </c>
-      <c r="H16">
-        <v>0.672957</v>
-      </c>
-      <c r="I16">
-        <v>0.4478024007202561</v>
-      </c>
-      <c r="J16">
-        <v>0.447802400720256</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.310432</v>
-      </c>
-      <c r="N16">
-        <v>0.931296</v>
-      </c>
-      <c r="O16">
-        <v>0.116522230029608</v>
-      </c>
-      <c r="P16">
-        <v>0.116522230029608</v>
-      </c>
-      <c r="Q16">
-        <v>0.069635795808</v>
-      </c>
-      <c r="R16">
-        <v>0.6267221622720001</v>
-      </c>
-      <c r="S16">
-        <v>0.05217893434453638</v>
-      </c>
-      <c r="T16">
-        <v>0.05217893434453637</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6023046666666666</v>
+      </c>
+      <c r="H20">
+        <v>1.806914</v>
+      </c>
+      <c r="I20">
+        <v>0.3649532839582774</v>
+      </c>
+      <c r="J20">
+        <v>0.3649532839582774</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2348406666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.7045220000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.06047470776907057</v>
+      </c>
+      <c r="P20">
+        <v>0.06047470776907057</v>
+      </c>
+      <c r="Q20">
+        <v>0.1414456294564445</v>
+      </c>
+      <c r="R20">
+        <v>1.273010665108</v>
+      </c>
+      <c r="S20">
+        <v>0.02207044319673946</v>
+      </c>
+      <c r="T20">
+        <v>0.02207044319673946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6023046666666666</v>
+      </c>
+      <c r="H21">
+        <v>1.806914</v>
+      </c>
+      <c r="I21">
+        <v>0.3649532839582774</v>
+      </c>
+      <c r="J21">
+        <v>0.3649532839582774</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1714796666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.514439</v>
+      </c>
+      <c r="O21">
+        <v>0.04415837715502553</v>
+      </c>
+      <c r="P21">
+        <v>0.04415837715502553</v>
+      </c>
+      <c r="Q21">
+        <v>0.1032830034717778</v>
+      </c>
+      <c r="R21">
+        <v>0.9295470312459999</v>
+      </c>
+      <c r="S21">
+        <v>0.01611574475699474</v>
+      </c>
+      <c r="T21">
+        <v>0.01611574475699474</v>
       </c>
     </row>
   </sheetData>
